--- a/Accounts-Schedules/تدريب طلبات 11-8-2025.xlsx
+++ b/Accounts-Schedules/تدريب طلبات 11-8-2025.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$B$2:$I$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$B$2:$I$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="108">
   <si>
     <t>Below is the list of trainees scheduled for the Training at Talabat on Monday, August, 11th, from 10 AM to 7 PM. Please ensure that if you are unable to reach the candidates listed below, you reply to this thread to avoid any transportation issues.</t>
   </si>
@@ -198,6 +198,66 @@
     <t>Alya Adel</t>
   </si>
   <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Route</t>
+  </si>
+  <si>
+    <t>Point</t>
+  </si>
+  <si>
+    <t>Ahmed Sayed Ahmed</t>
+  </si>
+  <si>
+    <t>العبور</t>
+  </si>
+  <si>
+    <t>كارفور العبور</t>
+  </si>
+  <si>
+    <t>Samar Hossam</t>
+  </si>
+  <si>
+    <t>مسجد السلام</t>
+  </si>
+  <si>
+    <t>Abdelrahman Mohamed</t>
+  </si>
+  <si>
+    <t>الرحاب</t>
+  </si>
+  <si>
+    <t>بوابة 6</t>
+  </si>
+  <si>
+    <t>Hagar Mohamed</t>
+  </si>
+  <si>
+    <t>اكتوبر</t>
+  </si>
+  <si>
+    <t>Kareem Elhefnawy</t>
+  </si>
+  <si>
+    <t>1001601577 / 1503080673</t>
+  </si>
+  <si>
+    <t>Hesham Zakaria</t>
+  </si>
+  <si>
+    <t>المقطم</t>
+  </si>
+  <si>
+    <t>كارفور المقطم</t>
+  </si>
+  <si>
+    <t>زهراء المعادي</t>
+  </si>
+  <si>
+    <t>سلم صقر</t>
+  </si>
+  <si>
     <t>Training at Talabat on Monday, August, 11th, from 10 AM to 7 PM</t>
   </si>
   <si>
@@ -219,6 +279,18 @@
     <t>هايبر 1</t>
   </si>
   <si>
+    <t>هاجر محمد</t>
+  </si>
+  <si>
+    <t>كريم الحفناوي</t>
+  </si>
+  <si>
+    <t>أحمد سيد أحمد</t>
+  </si>
+  <si>
+    <t>هشام زكريا</t>
+  </si>
+  <si>
     <t>يوسف حمادة</t>
   </si>
   <si>
@@ -228,6 +300,12 @@
     <t>رنا محمد صلاح</t>
   </si>
   <si>
+    <t>رامي ناشد</t>
+  </si>
+  <si>
+    <t>سلم صقر قريش</t>
+  </si>
+  <si>
     <t>مصطفى محمود</t>
   </si>
   <si>
@@ -252,6 +330,9 @@
     <t>شهاب الدين فهمي</t>
   </si>
   <si>
+    <t>عبد الرحمن محمد</t>
+  </si>
+  <si>
     <t>هيثم حافظ</t>
   </si>
   <si>
@@ -261,7 +342,7 @@
     <t>أحمد محمد نبيل</t>
   </si>
   <si>
-    <t>رامي ناشد</t>
+    <t>سمر حسام</t>
   </si>
   <si>
     <t>ي - المعادي</t>
@@ -287,7 +368,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,6 +408,19 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
@@ -474,7 +568,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -496,6 +590,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF46BDC6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F9FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1022,137 +1134,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1177,27 +1289,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="178" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -1207,9 +1301,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -1219,9 +1310,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -1245,6 +1333,39 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1785,353 +1906,490 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="21.9090909090909" style="24" customWidth="1"/>
-    <col min="2" max="2" width="24.9090909090909" style="24" customWidth="1"/>
-    <col min="3" max="3" width="30.1818181818182" style="24" customWidth="1"/>
-    <col min="4" max="4" width="16.1636363636364" style="24" customWidth="1"/>
-    <col min="5" max="5" width="15.9545454545455" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="8.72727272727273" style="24"/>
+    <col min="1" max="1" width="21.9090909090909" style="16" customWidth="1"/>
+    <col min="2" max="2" width="24.9090909090909" style="16" customWidth="1"/>
+    <col min="3" max="3" width="30.1818181818182" style="16" customWidth="1"/>
+    <col min="4" max="4" width="16.1636363636364" style="16" customWidth="1"/>
+    <col min="5" max="5" width="15.9545454545455" style="16" customWidth="1"/>
+    <col min="6" max="16384" width="8.72727272727273" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="15.25" spans="1:1">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" ht="15.25" spans="1:5">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="28" t="s">
+    <row r="4" ht="15.25" spans="1:5">
+      <c r="A4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="21">
         <v>1091928229</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="28" t="s">
+    <row r="5" ht="15.25" spans="1:5">
+      <c r="A5" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="21">
         <v>1009781057</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="28" t="s">
+    <row r="6" ht="15.25" spans="1:5">
+      <c r="A6" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="28" t="s">
+    <row r="7" ht="15.25" spans="1:5">
+      <c r="A7" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="21">
         <v>1023706376</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="28" t="s">
+    <row r="8" ht="15.25" spans="1:5">
+      <c r="A8" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="21">
         <v>1113276308</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="28" t="s">
+    <row r="9" ht="15.25" spans="1:5">
+      <c r="A9" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="21" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="28" t="s">
+    <row r="10" ht="15.25" spans="1:5">
+      <c r="A10" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="21" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="28" t="s">
+    <row r="11" ht="15.25" spans="1:5">
+      <c r="A11" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B11" s="21">
         <v>1019806777</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="28" t="s">
+    <row r="12" ht="15.25" spans="1:5">
+      <c r="A12" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="21">
         <v>1024776418</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="21" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="28" t="s">
+    <row r="13" ht="15.25" spans="1:5">
+      <c r="A13" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="28" t="s">
+    <row r="14" ht="15.25" spans="1:5">
+      <c r="A14" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="29">
+      <c r="B14" s="21">
         <v>1111927237</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="28" t="s">
+    <row r="15" ht="15.25" spans="1:5">
+      <c r="A15" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="29">
+      <c r="B15" s="21">
         <v>1550908996</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="21" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="28" t="s">
+    <row r="16" ht="15.25" spans="1:5">
+      <c r="A16" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="29">
+      <c r="B16" s="21">
         <v>1142419413</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="28" t="s">
+    <row r="17" ht="15.25" spans="1:5">
+      <c r="A17" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="29">
+      <c r="B17" s="21">
         <v>1065136845</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="E17" s="21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="28" t="s">
+    <row r="18" ht="15.25" spans="1:5">
+      <c r="A18" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="29">
+      <c r="B18" s="21">
         <v>1096872135</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="29" t="s">
+      <c r="E18" s="21" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="28" t="s">
+    <row r="19" ht="15.25" spans="1:5">
+      <c r="A19" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="29">
+      <c r="B19" s="21">
         <v>1100478578</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="E19" s="21" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="28" t="s">
+    <row r="20" ht="15.25" spans="1:5">
+      <c r="A20" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="29">
+      <c r="B20" s="21">
         <v>1555109692</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="29" t="s">
+      <c r="E20" s="21" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="28" t="s">
+    <row r="21" ht="15.25" spans="1:5">
+      <c r="A21" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="29">
+      <c r="B21" s="21">
         <v>1068352404</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="29" t="s">
+      <c r="E21" s="21" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="23" ht="15.25"/>
+    <row r="24" ht="15.25" spans="1:5">
+      <c r="A24" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" ht="15.25" spans="1:5">
+      <c r="A25" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="26">
+        <v>1145031243</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" ht="15.25" spans="1:5">
+      <c r="A26" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="26">
+        <v>1024716106</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" ht="15.25" spans="1:5">
+      <c r="A27" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="30">
+        <v>1157854510</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" ht="15.25" spans="1:5">
+      <c r="A28" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="26">
+        <v>1115507977</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" ht="15.25" spans="1:5">
+      <c r="A29" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" ht="15.25" spans="1:5">
+      <c r="A30" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="26">
+        <v>1021152244</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" ht="15.25" spans="1:5">
+      <c r="A31" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="32">
+        <v>1091928229</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="32" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2143,10 +2401,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:I20"/>
+  <dimension ref="B1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="B3:H17"/>
+      <selection activeCell="H3" sqref="B3:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -2164,21 +2422,21 @@
   <sheetData>
     <row r="1" ht="16.25" spans="5:5">
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" ht="16.25" spans="2:9">
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>2</v>
@@ -2189,11 +2447,11 @@
       <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" ht="15.25" spans="2:9">
       <c r="B3" s="5">
         <v>0.416666666666667</v>
       </c>
@@ -2203,23 +2461,23 @@
       <c r="D3" s="7">
         <v>1550908996</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" s="8" t="s">
+      <c r="E3" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3" s="21" t="s">
+      <c r="H3" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" ht="15.25" spans="2:9">
       <c r="B4" s="5">
         <v>0.416666666666667</v>
       </c>
@@ -2227,129 +2485,129 @@
         <v>0.791666666666667</v>
       </c>
       <c r="D4" s="7">
-        <v>1100478578</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9">
+        <v>1115507977</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" ht="15.25" spans="2:9">
       <c r="B5" s="5">
         <v>0.416666666666667</v>
       </c>
       <c r="C5" s="6">
         <v>0.791666666666667</v>
       </c>
-      <c r="D5" s="7">
-        <v>1024776418</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9">
+      <c r="D5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" ht="15.25" spans="2:9">
       <c r="B6" s="5">
         <v>0.416666666666667</v>
       </c>
       <c r="C6" s="6">
         <v>0.791666666666667</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="7">
+        <v>1145031243</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9">
+      <c r="H6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" ht="15.25" spans="2:9">
       <c r="B7" s="5">
         <v>0.416666666666667</v>
       </c>
       <c r="C7" s="6">
         <v>0.791666666666667</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9">
+      <c r="D7" s="7">
+        <v>1021152244</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" ht="15.25" spans="2:9">
       <c r="B8" s="5">
         <v>0.416666666666667</v>
       </c>
       <c r="C8" s="6">
         <v>0.791666666666667</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9">
+      <c r="D8" s="7">
+        <v>1100478578</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" ht="15.25" spans="2:9">
       <c r="B9" s="5">
         <v>0.416666666666667</v>
       </c>
@@ -2357,51 +2615,51 @@
         <v>0.791666666666667</v>
       </c>
       <c r="D9" s="7">
-        <v>1096872135</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9">
+        <v>1024776418</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" ht="15.25" spans="2:9">
       <c r="B10" s="5">
         <v>0.416666666666667</v>
       </c>
       <c r="C10" s="6">
         <v>0.791666666666667</v>
       </c>
-      <c r="D10" s="7">
-        <v>1113276308</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9">
+      <c r="D10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" ht="15.25" spans="2:9">
       <c r="B11" s="5">
         <v>0.416666666666667</v>
       </c>
@@ -2409,77 +2667,77 @@
         <v>0.791666666666667</v>
       </c>
       <c r="D11" s="7">
-        <v>1019806777</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="10">
+        <v>1091928229</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" ht="15.25" spans="2:9">
+      <c r="B12" s="5">
         <v>0.416666666666667</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="6">
         <v>0.791666666666667</v>
       </c>
-      <c r="D12" s="12">
-        <v>1068352404</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9">
+      <c r="D12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" ht="15.25" spans="2:9">
       <c r="B13" s="5">
         <v>0.416666666666667</v>
       </c>
       <c r="C13" s="6">
         <v>0.791666666666667</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" s="21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9">
+      <c r="D13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" ht="15.25" spans="2:9">
       <c r="B14" s="5">
         <v>0.416666666666667</v>
       </c>
@@ -2487,25 +2745,25 @@
         <v>0.791666666666667</v>
       </c>
       <c r="D14" s="7">
-        <v>1009781057</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9">
+        <v>1096872135</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" ht="15.25" spans="2:9">
       <c r="B15" s="5">
         <v>0.416666666666667</v>
       </c>
@@ -2513,25 +2771,25 @@
         <v>0.791666666666667</v>
       </c>
       <c r="D15" s="7">
-        <v>1065136845</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9">
+        <v>1113276308</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" ht="15.25" spans="2:9">
       <c r="B16" s="5">
         <v>0.416666666666667</v>
       </c>
@@ -2539,73 +2797,77 @@
         <v>0.791666666666667</v>
       </c>
       <c r="D16" s="7">
-        <v>1555109692</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="I16" s="21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="10">
+        <v>1019806777</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" ht="15.25" spans="2:9">
+      <c r="B17" s="5">
         <v>0.416666666666667</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="6">
         <v>0.791666666666667</v>
       </c>
-      <c r="D17" s="12">
-        <v>1091928229</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" s="22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9">
+      <c r="D17" s="7">
+        <v>1068352404</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" ht="15.25" spans="2:9">
       <c r="B18" s="5">
         <v>0.416666666666667</v>
       </c>
       <c r="C18" s="6">
         <v>0.791666666666667</v>
       </c>
-      <c r="D18" s="7">
-        <v>1023706376</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9">
+      <c r="D18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" ht="15.25" spans="2:9">
       <c r="B19" s="5">
         <v>0.416666666666667</v>
       </c>
@@ -2613,45 +2875,223 @@
         <v>0.791666666666667</v>
       </c>
       <c r="D19" s="7">
+        <v>1157854510</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" ht="15.25" spans="2:9">
+      <c r="B20" s="9">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C20" s="10">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D20" s="11">
+        <v>1009781057</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" ht="15.25" spans="2:9">
+      <c r="B21" s="9">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C21" s="10">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D21" s="11">
+        <v>1065136845</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" ht="15.25" spans="2:9">
+      <c r="B22" s="9">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C22" s="10">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D22" s="11">
+        <v>1555109692</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" ht="15.25" spans="2:9">
+      <c r="B23" s="9">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C23" s="10">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D23" s="11">
+        <v>1024716106</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" ht="15.25" spans="2:9">
+      <c r="B24" s="9">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C24" s="10">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D24" s="11">
+        <v>1091928229</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" ht="15.25" spans="2:9">
+      <c r="B25" s="9">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C25" s="10">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D25" s="11">
+        <v>1023706376</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" ht="15.25" spans="2:9">
+      <c r="B26" s="9">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C26" s="10">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D26" s="11">
         <v>1111927237</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" s="9" t="s">
+      <c r="E26" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="21" t="s">
+      <c r="F26" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
-      <c r="B20" s="15">
+    <row r="27" ht="15.25" spans="2:9">
+      <c r="B27" s="9">
         <v>0.416666666666667</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C27" s="10">
         <v>0.791666666666667</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D27" s="11">
         <v>1142419413</v>
       </c>
-      <c r="E20" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="23" t="s">
+      <c r="E27" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="15" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="B2:I20" etc:filterBottomFollowUsedRange="0">
-    <sortState ref="B3:I20">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="B2:I27" etc:filterBottomFollowUsedRange="0">
+    <sortState ref="B2:I27">
       <sortCondition ref="G2"/>
     </sortState>
     <extLst/>
